--- a/Java基础笔记/java基础知识梳理图.xlsx
+++ b/Java基础笔记/java基础知识梳理图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26268" windowHeight="13884" activeTab="1"/>
+    <workbookView windowWidth="13845" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="过滤器Filter" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -46,62 +62,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,9 +76,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,15 +91,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,9 +122,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,7 +184,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +238,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,19 +310,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,25 +340,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,109 +364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,15 +375,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -398,6 +389,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,11 +421,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,23 +461,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,8 +470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -495,133 +495,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -702,8 +702,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -712,8 +712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1363980" y="586740"/>
-          <a:ext cx="3489960" cy="2781300"/>
+          <a:off x="1499870" y="552450"/>
+          <a:ext cx="3829685" cy="3676015"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -929,8 +929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1813560" y="144780"/>
-          <a:ext cx="2735580" cy="327660"/>
+          <a:off x="1949450" y="144780"/>
+          <a:ext cx="3075305" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -985,15 +985,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -1004,8 +1004,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3101340" y="3368040"/>
-          <a:ext cx="7620" cy="723900"/>
+          <a:off x="3406775" y="4228465"/>
+          <a:ext cx="8890" cy="905510"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1035,13 +1035,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1051,8 +1051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="510540" y="4175760"/>
-          <a:ext cx="1112520" cy="1508760"/>
+          <a:off x="510540" y="5295900"/>
+          <a:ext cx="1248410" cy="1405890"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1096,13 +1096,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1112,8 +1112,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1623060" y="4495800"/>
-          <a:ext cx="449580" cy="0"/>
+          <a:off x="1758950" y="5593080"/>
+          <a:ext cx="517525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1143,13 +1143,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1159,8 +1159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2087880" y="4198620"/>
-          <a:ext cx="1112520" cy="1508760"/>
+          <a:off x="2291715" y="5314950"/>
+          <a:ext cx="1248410" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1303,13 +1303,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1319,8 +1319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3665220" y="4198620"/>
-          <a:ext cx="1112520" cy="1508760"/>
+          <a:off x="4072890" y="5314950"/>
+          <a:ext cx="1180465" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1462,13 +1462,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1478,8 +1478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5394960" y="4198620"/>
-          <a:ext cx="1112520" cy="1508760"/>
+          <a:off x="5938520" y="5314950"/>
+          <a:ext cx="1248410" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1641,13 +1641,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1657,8 +1657,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3208020" y="4434840"/>
-          <a:ext cx="449580" cy="0"/>
+          <a:off x="3547745" y="5532120"/>
+          <a:ext cx="517525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1688,13 +1688,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1704,8 +1704,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4777740" y="4450080"/>
-          <a:ext cx="586740" cy="7620"/>
+          <a:off x="5253355" y="5547360"/>
+          <a:ext cx="654685" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1735,13 +1735,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1751,8 +1751,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4785360" y="5227320"/>
-          <a:ext cx="586740" cy="0"/>
+          <a:off x="5260975" y="6278880"/>
+          <a:ext cx="654685" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1782,13 +1782,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1798,7 +1798,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3200400" y="5303520"/>
+          <a:off x="3540125" y="6343650"/>
           <a:ext cx="434340" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1829,13 +1829,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -1845,8 +1845,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1630680" y="5295900"/>
-          <a:ext cx="457200" cy="7620"/>
+          <a:off x="1766570" y="6343650"/>
+          <a:ext cx="525145" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1876,13 +1876,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1892,8 +1892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1417320" y="6088380"/>
-          <a:ext cx="3177540" cy="411480"/>
+          <a:off x="1553210" y="7082790"/>
+          <a:ext cx="3517265" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1949,13 +1949,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1965,8 +1965,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="708660" y="6629400"/>
-          <a:ext cx="4579620" cy="3360420"/>
+          <a:off x="776605" y="7589520"/>
+          <a:ext cx="5055235" cy="3154680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2374,8 +2374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7635240" y="190500"/>
-          <a:ext cx="2887980" cy="358140"/>
+          <a:off x="8450580" y="179070"/>
+          <a:ext cx="3227705" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2433,8 +2433,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6957060" y="662940"/>
-          <a:ext cx="4145280" cy="2186940"/>
+          <a:off x="7704455" y="628650"/>
+          <a:ext cx="4620895" cy="2049780"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2809,6 +2809,942 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>610235</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133985</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7385685" y="3638550"/>
+          <a:ext cx="3589020" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>过滤器：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>过滤器需要在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>web.xml</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中配置，包括过滤规则</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2. Filter在只在 Servlet 前后起作用。Filters 通常将 请求和响应（request/response） 当做黑盒子，Filter 通常不考虑servlet 的实现</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3. Filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Servlcet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>规范规定的，只能用于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4. Filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>不能使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>容器的资源</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5. Filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是被容器（例如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Tomcat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）调用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8140700" y="3028950"/>
+          <a:ext cx="5659120" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>拦截器（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Interceptor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）和过滤器（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）的区别</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>191770</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="圆角矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11032490" y="3638550"/>
+          <a:ext cx="3664585" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>拦截器：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>拦截器在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>spring.xml</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>中配置拦截规则和所在路径</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.拦截器能够深入到方法前后、异常抛出前后等，因此拦截器的使用具有更大的弹性。允许用户介入（hook into）请求的生命周期，在请求过程中获取信息，Interceptor 通常和请求更加耦合。3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>拦截器既可以用于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>程序也可以用于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Application\Swing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>程序中</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4. 拦截器是一个Spring的组件，归Spring管理，配置在Spring文件中，因此能使用Spring里的任何资源、对象，例如 Service对象、数据源、事务管理等，通过IoC注入到拦截器即可</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5. Interceptor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>是被</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>544195</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="圆角矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14772640" y="3705225"/>
+          <a:ext cx="1680845" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>区别：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>架构的程序中，优先使用拦截器。几乎所有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>能做的事情，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>interceptor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>都能轻松实现</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>使用的范围不同</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4. Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Interceptor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>更方便</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>因此</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>总是优先于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Integerceptor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>执行</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2839,8 +3775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2979420" y="762000"/>
-          <a:ext cx="2080895" cy="350520"/>
+          <a:off x="3251200" y="716280"/>
+          <a:ext cx="2352675" cy="327660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2904,8 +3840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1866900" y="1356360"/>
-          <a:ext cx="4221480" cy="4922520"/>
+          <a:off x="2070735" y="1276350"/>
+          <a:ext cx="4629150" cy="4613910"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3145,8 +4081,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2758440" y="6484620"/>
-          <a:ext cx="2080895" cy="350520"/>
+          <a:off x="3030220" y="6084570"/>
+          <a:ext cx="2284730" cy="327660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3307,8 +4243,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="7338060"/>
-          <a:ext cx="1341120" cy="1301750"/>
+          <a:off x="342900" y="6880860"/>
+          <a:ext cx="1477010" cy="1221740"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3404,8 +4340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2461260" y="7101840"/>
-          <a:ext cx="1341120" cy="1773555"/>
+          <a:off x="2733040" y="6667500"/>
+          <a:ext cx="1477010" cy="1659255"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3571,8 +4507,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4312920" y="7330440"/>
-          <a:ext cx="1341120" cy="1301750"/>
+          <a:off x="4788535" y="6873240"/>
+          <a:ext cx="1477010" cy="1221740"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3738,8 +4674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6073140" y="7330440"/>
-          <a:ext cx="1341120" cy="1301750"/>
+          <a:off x="6684645" y="6873240"/>
+          <a:ext cx="1544955" cy="1221740"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3908,8 +4844,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1684020" y="7988935"/>
-          <a:ext cx="777240" cy="0"/>
+          <a:off x="1819910" y="7497445"/>
+          <a:ext cx="913130" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3958,8 +4894,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3802380" y="7981315"/>
-          <a:ext cx="510540" cy="7620"/>
+          <a:off x="4210050" y="7489825"/>
+          <a:ext cx="578485" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4008,7 +4944,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5654040" y="7981315"/>
+          <a:off x="6265545" y="7489825"/>
           <a:ext cx="419100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4298,11 +5234,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4315,11 +5251,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
